--- a/src/test/resources/testdata/ATSAddUsers.xlsx
+++ b/src/test/resources/testdata/ATSAddUsers.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gulen\eclipse-workspace\AllianceTekSolution_HRMS_Framework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E796B32-994E-4140-ADD5-DD8D525EDBC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D9C6E0-5B04-4304-867A-4487256E8214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheetName" sheetId="2" r:id="rId1"/>
+    <sheet name="adduserfromexcelsheet" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -471,7 +471,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
